--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_WIZUALIZACJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5623E6BE-5DA1-4F22-B90E-FCC90E57102B}"/>
   <bookViews>
-    <workbookView xWindow="13428" yWindow="3036" windowWidth="29700" windowHeight="15288" activeTab="2" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
+    <workbookView xWindow="13428" yWindow="3036" windowWidth="29700" windowHeight="15288" activeTab="3" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Comm-OUT</t>
   </si>
   <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
   </si>
   <si>
     <t>Commodity Output</t>
-  </si>
-  <si>
-    <t>Annual activity bound (upper by default)</t>
-  </si>
-  <si>
-    <t>Extraction cost</t>
   </si>
   <si>
     <t>PJ/a</t>
@@ -1069,7 +1057,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1085,21 +1073,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1119,9 +1101,7 @@
     </row>
     <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E10" s="11"/>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1130,74 +1110,38 @@
     </row>
     <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11" s="11"/>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E12" s="11"/>
-      <c r="F12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" s="11"/>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7">
-        <v>30</v>
-      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E14" s="11"/>
-      <c r="F14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10">
-        <v>20</v>
-      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1251,116 +1195,116 @@
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="J4" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="J5" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7E03-3B65-4F20-B6BD-5B0F366B977F}">
   <dimension ref="C3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -1399,59 +1343,59 @@
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="39.6" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -1463,19 +1407,19 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1483,29 +1427,29 @@
     </row>
     <row r="8" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1517,44 +1461,44 @@
     </row>
     <row r="10" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="3:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1568,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BA4016-5CB2-4F18-92FB-E1C26F8EDC56}">
   <dimension ref="D4:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
@@ -1601,49 +1545,49 @@
         <v>5</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="26.4" x14ac:dyDescent="0.35">
       <c r="D6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1683,69 +1627,69 @@
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_WIZUALIZACJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5623E6BE-5DA1-4F22-B90E-FCC90E57102B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21192396-A1D2-4CAF-BF23-5F1DB10F7DE0}"/>
   <bookViews>
-    <workbookView xWindow="13428" yWindow="3036" windowWidth="29700" windowHeight="15288" activeTab="3" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
+    <workbookView xWindow="13428" yWindow="3036" windowWidth="29700" windowHeight="15288" activeTab="2" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
     <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
     <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
+    <sheet name="Arkusz6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,8 +128,52 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{5C627A55-02EA-4FC7-B577-D5053DA2F636}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -157,9 +202,15 @@
     <t>Commodity Output</t>
   </si>
   <si>
+    <t>\I: Units</t>
+  </si>
+  <si>
     <t>PJ/a</t>
   </si>
   <si>
+    <t>EUR/GJ</t>
+  </si>
+  <si>
     <t>IMP_OIL</t>
   </si>
   <si>
@@ -328,13 +379,73 @@
     <t>Comm-IN</t>
   </si>
   <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
     <t>Input Commodity</t>
   </si>
   <si>
+    <t>Installed Capacity</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Unit Conversion</t>
+  </si>
+  <si>
+    <t>Process Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Availability Factor </t>
+  </si>
+  <si>
+    <t>Variable Costs</t>
+  </si>
+  <si>
+    <t>Fixed Costs</t>
+  </si>
+  <si>
+    <t>PJ/y/GW</t>
+  </si>
+  <si>
+    <t>%/100</t>
+  </si>
+  <si>
+    <t>EUR/kW</t>
+  </si>
+  <si>
+    <t>EX_PP_OIL_GAS</t>
+  </si>
+  <si>
     <t>EX_CHP_OIL_GAS</t>
   </si>
   <si>
     <t>HEAT</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -396,7 +507,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +550,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96DBFC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -449,12 +590,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,158 +677,20 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -629,8 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -639,13 +717,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,71 +922,104 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 10" xfId="2" xr:uid="{E213283E-04E0-4918-8419-8CD9EF31BDEC}"/>
@@ -1161,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3C577-DA15-4E23-9877-0DA8B6E3732B}">
-  <dimension ref="C3:J8"/>
+  <dimension ref="C3:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1195,116 +1497,133 @@
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7E03-3B65-4F20-B6BD-5B0F366B977F}">
-  <dimension ref="C3:J11"/>
+  <dimension ref="C3:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1343,59 +1662,59 @@
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="39.6" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -1407,19 +1726,19 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1427,29 +1746,29 @@
     </row>
     <row r="8" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1461,47 +1780,87 @@
     </row>
     <row r="10" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="3:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1512,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BA4016-5CB2-4F18-92FB-E1C26F8EDC56}">
   <dimension ref="D4:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1545,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="26.4" x14ac:dyDescent="0.35">
@@ -1559,35 +1918,35 @@
         <v>8</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1598,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7AD9BC-E3CB-46BF-9E5E-F5A1543A1D1D}">
-  <dimension ref="D4:G10"/>
+  <dimension ref="D4:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1627,13 +1986,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
@@ -1641,58 +2000,319 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="37" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A33044-7F23-40D1-BB16-178F116000EF}">
+  <dimension ref="B1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="B4" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="52">
+        <v>4</v>
+      </c>
+      <c r="G6" s="52">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="52">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="55">
+        <v>2</v>
+      </c>
+      <c r="G7" s="55">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="H7" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="55">
+        <v>1</v>
+      </c>
+      <c r="K7" s="56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_WIZUALIZACJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21192396-A1D2-4CAF-BF23-5F1DB10F7DE0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906A8A3-5823-4E30-B25B-7B5CDF5D6E36}"/>
   <bookViews>
-    <workbookView xWindow="13428" yWindow="3036" windowWidth="29700" windowHeight="15288" activeTab="2" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
+    <workbookView xWindow="4884" yWindow="2100" windowWidth="29700" windowHeight="15288" activeTab="1" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -367,12 +367,6 @@
     <t>Power Plant - Natural Gas</t>
   </si>
   <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -446,6 +440,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Fuel Oil</t>
   </si>
 </sst>
 </file>
@@ -914,27 +911,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,7 +967,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,7 +976,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1356,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811CE97A-1769-42B2-9F76-97A43F3716E1}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
@@ -1374,86 +1369,56 @@
     <col min="11" max="13" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="11"/>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3C577-DA15-4E23-9877-0DA8B6E3732B}">
   <dimension ref="C3:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1496,116 +1461,116 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1614,10 +1579,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -1635,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7E03-3B65-4F20-B6BD-5B0F366B977F}">
   <dimension ref="C3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1661,176 +1626,176 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="39.6" x14ac:dyDescent="0.35">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1847,10 +1812,10 @@
         <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -1886,67 +1851,67 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>66</v>
+      <c r="G5" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>66</v>
+      <c r="G6" s="34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>66</v>
+      <c r="G7" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>66</v>
+      <c r="G8" s="30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1925,7 @@
   <dimension ref="D4:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1982,73 +1947,73 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>66</v>
+      <c r="G5" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>66</v>
+      <c r="G6" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>66</v>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>66</v>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>66</v>
+      <c r="G9" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>66</v>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2060,71 +2025,71 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>66</v>
+      <c r="G15" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>66</v>
+      <c r="G16" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
-        <v>66</v>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>66</v>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>66</v>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2144,170 +2109,170 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="J3" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="K3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="43" t="s">
+    </row>
+    <row r="4" spans="2:11" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="B4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="E4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="39.6" x14ac:dyDescent="0.35">
-      <c r="B4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="I4" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="K4" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="46" t="s">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="I5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="50">
         <v>31.536000000000001</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="50">
         <v>0.4</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="50">
         <v>0.8</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="50">
         <v>1</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>2</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>31.536000000000001</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>0.6</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>0.5</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="53">
         <v>1</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="54">
         <v>1</v>
       </c>
     </row>
@@ -2315,4 +2280,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
+    <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <xsd:import namespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{934fa774-6324-4670-aa1a-daa689219115}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be4b9af-ad17-4489-a21e-b8b210aeb5f9">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC43E4D6-F9D1-4DC1-9D16-1E6B494DAB90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E53648C-3562-4A21-AC27-398270473AFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE264EBA-7065-4BA0-94F6-986ABAB01058}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_WIZUALIZACJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906A8A3-5823-4E30-B25B-7B5CDF5D6E36}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD6A17F-3B8E-4DE7-83DE-AE3FD6F346FC}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="2100" windowWidth="29700" windowHeight="15288" activeTab="1" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
+    <workbookView xWindow="5232" yWindow="2448" windowWidth="29700" windowHeight="15288" activeTab="4" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -443,6 +443,45 @@
   </si>
   <si>
     <t>Fuel Oil</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>Electrical Grid</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Final Con</t>
+  </si>
+  <si>
+    <t>DMD_ELC_FIN</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>EXP_ELC_HV</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3C577-DA15-4E23-9877-0DA8B6E3732B}">
-  <dimension ref="C3:J9"/>
+  <dimension ref="C3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1591,6 +1630,34 @@
         <v>39</v>
       </c>
     </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1598,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419B7E03-3B65-4F20-B6BD-5B0F366B977F}">
-  <dimension ref="C3:J13"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1824,6 +1891,66 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1922,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7AD9BC-E3CB-46BF-9E5E-F5A1543A1D1D}">
-  <dimension ref="D4:G20"/>
+  <dimension ref="D4:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2088,7 +2215,87 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="23" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="4:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="35" t="str">
+        <f>Arkusz3!D14</f>
+        <v>ELC_GRID</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D27" s="7" t="str">
+        <f>Arkusz3!D15</f>
+        <v>DMD_ELC_FIN</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>F26</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>Arkusz2!D10</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D28" s="7" t="str">
+        <f>Arkusz3!D16</f>
+        <v>EXP_ELC_HV</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="str">
+        <f>E26</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2283,17 +2490,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2302,7 +2498,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2497,18 +2693,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC43E4D6-F9D1-4DC1-9D16-1E6B494DAB90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E53648C-3562-4A21-AC27-398270473AFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2516,7 +2712,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE264EBA-7065-4BA0-94F6-986ABAB01058}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2533,4 +2729,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC43E4D6-F9D1-4DC1-9D16-1E6B494DAB90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_WIZUALIZACJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD6A17F-3B8E-4DE7-83DE-AE3FD6F346FC}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{05BB3F55-1012-4D2D-B439-BDACDC20F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4797B3F-0D77-4F86-8E14-35CE816AD672}"/>
   <bookViews>
     <workbookView xWindow="5232" yWindow="2448" windowWidth="29700" windowHeight="15288" activeTab="4" xr2:uid="{E583E69B-37CA-4067-BB1F-6D5A5B479ADE}"/>
   </bookViews>
@@ -2052,7 +2052,7 @@
   <dimension ref="D4:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2290,8 +2290,7 @@
         <f>Arkusz3!D16</f>
         <v>EXP_ELC_HV</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="str">
+      <c r="E28" s="6" t="str">
         <f>E26</f>
         <v>ELC_HV</v>
       </c>
@@ -2490,15 +2489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2693,6 +2683,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2705,14 +2704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E53648C-3562-4A21-AC27-398270473AFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE264EBA-7065-4BA0-94F6-986ABAB01058}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2731,6 +2722,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E53648C-3562-4A21-AC27-398270473AFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC43E4D6-F9D1-4DC1-9D16-1E6B494DAB90}">
   <ds:schemaRefs>
